--- a/Assets/06.Table/BokPass.xlsx
+++ b/Assets/06.Table/BokPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA84B9C7-5C39-4AC6-B591-EE9FB971586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA30493-A61C-4CEF-A4D9-8F226465EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="720" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BokPass" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -580,16 +580,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>1231</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
       </c>
       <c r="E6" s="2">
-        <v>1232</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/BokPass.xlsx
+++ b/Assets/06.Table/BokPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA30493-A61C-4CEF-A4D9-8F226465EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF5328-26E1-429D-9E2E-12B8CBDE4F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +523,13 @@
         <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>46</v>
       </c>
       <c r="D5" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="1">
         <v>46</v>
       </c>
       <c r="F5" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,13 +663,13 @@
         <v>46</v>
       </c>
       <c r="D10" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="1">
         <v>46</v>
       </c>
       <c r="F10" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,13 +683,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -703,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="1">
         <v>30</v>
       </c>
       <c r="F13" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,13 +763,13 @@
         <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="1">
         <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -783,13 +783,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,13 +803,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,13 +823,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="1">
         <v>30</v>
       </c>
       <c r="F18" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,13 +863,13 @@
         <v>46</v>
       </c>
       <c r="D20" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="1">
         <v>46</v>
       </c>
       <c r="F20" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -883,13 +883,13 @@
         <v>14</v>
       </c>
       <c r="D21" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,13 +903,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
       <c r="F22" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,13 +923,13 @@
         <v>30</v>
       </c>
       <c r="D23" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="1">
         <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
       </c>
       <c r="F24" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,13 +963,13 @@
         <v>46</v>
       </c>
       <c r="D25" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="1">
         <v>46</v>
       </c>
       <c r="F25" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -983,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="D26" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,13 +1003,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,13 +1023,13 @@
         <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="1">
         <v>30</v>
       </c>
       <c r="F28" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,13 +1063,13 @@
         <v>46</v>
       </c>
       <c r="D30" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E30" s="1">
         <v>46</v>
       </c>
       <c r="F30" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1083,33 +1083,13 @@
         <v>14</v>
       </c>
       <c r="D31" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>13000000</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>13000000</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BokPass.xlsx
+++ b/Assets/06.Table/BokPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF5328-26E1-429D-9E2E-12B8CBDE4F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409B048-00A9-46F3-9C87-33152B28FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,13 +543,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,13 +683,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -783,13 +783,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -883,13 +883,13 @@
         <v>14</v>
       </c>
       <c r="D21" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
       </c>
       <c r="F24" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="D26" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1083,13 +1083,13 @@
         <v>14</v>
       </c>
       <c r="D31" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
